--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp6</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Bmp6</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H2">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I2">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J2">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>321.610274679221</v>
+        <v>1200.296411233034</v>
       </c>
       <c r="R2">
-        <v>1286.441098716884</v>
+        <v>4801.185644932136</v>
       </c>
       <c r="S2">
-        <v>0.05691384042581395</v>
+        <v>0.2506695977283833</v>
       </c>
       <c r="T2">
-        <v>0.0374095596608326</v>
+        <v>0.1920981122079773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H3">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I3">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J3">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>164.464727965026</v>
+        <v>650.579521500024</v>
       </c>
       <c r="R3">
-        <v>986.7883677901559</v>
+        <v>3903.477129000144</v>
       </c>
       <c r="S3">
-        <v>0.02910454055739518</v>
+        <v>0.1358668620671844</v>
       </c>
       <c r="T3">
-        <v>0.0286956926005251</v>
+        <v>0.1561802944069541</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H4">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I4">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J4">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>138.5129965025127</v>
+        <v>551.3692035836519</v>
       </c>
       <c r="R4">
-        <v>831.077979015076</v>
+        <v>3308.215221501911</v>
       </c>
       <c r="S4">
-        <v>0.02451198609157703</v>
+        <v>0.1151478044661918</v>
       </c>
       <c r="T4">
-        <v>0.02416765234706709</v>
+        <v>0.1323635338906366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H5">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I5">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J5">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>215.1928517961375</v>
+        <v>698.848771088674</v>
       </c>
       <c r="R5">
-        <v>860.77140718455</v>
+        <v>2795.395084354696</v>
       </c>
       <c r="S5">
-        <v>0.03808165532061124</v>
+        <v>0.1459473998941768</v>
       </c>
       <c r="T5">
-        <v>0.02503113383389811</v>
+        <v>0.1118453145311749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H6">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I6">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J6">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>217.6082314610714</v>
+        <v>460.7658597143627</v>
       </c>
       <c r="R6">
-        <v>1305.649388766428</v>
+        <v>2764.595158286176</v>
       </c>
       <c r="S6">
-        <v>0.03850909357007301</v>
+        <v>0.09622622513960678</v>
       </c>
       <c r="T6">
-        <v>0.03796813453325212</v>
+        <v>0.1106129923317296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.715603</v>
+        <v>26.565172</v>
       </c>
       <c r="H7">
-        <v>13.431206</v>
+        <v>53.130344</v>
       </c>
       <c r="I7">
-        <v>0.2130751263197567</v>
+        <v>0.8403911461614593</v>
       </c>
       <c r="J7">
-        <v>0.178861592654224</v>
+        <v>0.8140661756897266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>146.6616263569423</v>
+        <v>462.236038318244</v>
       </c>
       <c r="R7">
-        <v>879.9697581416539</v>
+        <v>2773.416229909464</v>
       </c>
       <c r="S7">
-        <v>0.02595401035428631</v>
+        <v>0.09653325686591613</v>
       </c>
       <c r="T7">
-        <v>0.02558941967864898</v>
+        <v>0.1109659283212541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H8">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I8">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J8">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N8">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O8">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P8">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q8">
-        <v>97.70091410744132</v>
+        <v>92.17849264135133</v>
       </c>
       <c r="R8">
-        <v>586.205484644648</v>
+        <v>553.0709558481079</v>
       </c>
       <c r="S8">
-        <v>0.01728966601117838</v>
+        <v>0.01925053299616193</v>
       </c>
       <c r="T8">
-        <v>0.01704678828528897</v>
+        <v>0.02212867703785381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H9">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I9">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J9">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P9">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q9">
-        <v>49.96219190024799</v>
+        <v>49.962191900248</v>
       </c>
       <c r="R9">
         <v>449.659727102232</v>
       </c>
       <c r="S9">
-        <v>0.008841571432911461</v>
+        <v>0.0104340914694545</v>
       </c>
       <c r="T9">
-        <v>0.01307605331086106</v>
+        <v>0.01799113616934802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H10">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I10">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J10">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N10">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O10">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P10">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q10">
-        <v>42.07840184071911</v>
+        <v>42.34319256440399</v>
       </c>
       <c r="R10">
-        <v>378.705616566472</v>
+        <v>381.0887330796359</v>
       </c>
       <c r="S10">
-        <v>0.007446414608875966</v>
+        <v>0.008842941582863662</v>
       </c>
       <c r="T10">
-        <v>0.01101271591133587</v>
+        <v>0.01524757250026364</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H11">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I11">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J11">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N11">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O11">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P11">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q11">
-        <v>65.37271967084999</v>
+        <v>53.66909848296466</v>
       </c>
       <c r="R11">
-        <v>392.2363180251</v>
+        <v>322.014590897788</v>
       </c>
       <c r="S11">
-        <v>0.01156869922535659</v>
+        <v>0.0112082408988873</v>
       </c>
       <c r="T11">
-        <v>0.01140618715846435</v>
+        <v>0.01288398316365531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1166,13 +1166,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H12">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I12">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J12">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N12">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O12">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P12">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q12">
-        <v>66.10647981397958</v>
+        <v>35.38517820396978</v>
       </c>
       <c r="R12">
-        <v>594.9583183258161</v>
+        <v>318.466603835728</v>
       </c>
       <c r="S12">
-        <v>0.01169854926742553</v>
+        <v>0.007389831630692244</v>
       </c>
       <c r="T12">
-        <v>0.01730131968522916</v>
+        <v>0.01274202622485635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1228,13 +1228,13 @@
         <v>2.040110666666667</v>
       </c>
       <c r="H13">
-        <v>6.120332</v>
+        <v>6.120331999999999</v>
       </c>
       <c r="I13">
-        <v>0.06472938290221787</v>
+        <v>0.06453904915263559</v>
       </c>
       <c r="J13">
-        <v>0.08150365120545484</v>
+        <v>0.09377607766272801</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N13">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O13">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P13">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q13">
-        <v>44.55384696228755</v>
+        <v>35.49808268852133</v>
       </c>
       <c r="R13">
-        <v>400.984622660588</v>
+        <v>319.482744196692</v>
       </c>
       <c r="S13">
-        <v>0.007884482356469942</v>
+        <v>0.007413410574575942</v>
       </c>
       <c r="T13">
-        <v>0.01166058685427541</v>
+        <v>0.01278268256675089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H14">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I14">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J14">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N14">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O14">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P14">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q14">
-        <v>610.3232513449004</v>
+        <v>135.5897827267965</v>
       </c>
       <c r="R14">
-        <v>2441.293005379602</v>
+        <v>542.359130907186</v>
       </c>
       <c r="S14">
-        <v>0.1080060025129908</v>
+        <v>0.02831653579409583</v>
       </c>
       <c r="T14">
-        <v>0.07099252070336774</v>
+        <v>0.02170009095482546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H15">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I15">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J15">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>24.489942</v>
       </c>
       <c r="N15">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O15">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P15">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q15">
-        <v>312.1064698672529</v>
+        <v>73.49179347797401</v>
       </c>
       <c r="R15">
-        <v>1872.638819203518</v>
+        <v>440.9507608678441</v>
       </c>
       <c r="S15">
-        <v>0.05523199729736934</v>
+        <v>0.01534800748803085</v>
       </c>
       <c r="T15">
-        <v>0.05445612216529668</v>
+        <v>0.01764268557888296</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H16">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I16">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J16">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N16">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O16">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P16">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q16">
-        <v>262.857592044463</v>
+        <v>62.284640540877</v>
       </c>
       <c r="R16">
-        <v>1577.145552266778</v>
+        <v>373.707843245262</v>
       </c>
       <c r="S16">
-        <v>0.04651665766354584</v>
+        <v>0.01300750851450092</v>
       </c>
       <c r="T16">
-        <v>0.04586321184093747</v>
+        <v>0.01495225898638299</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H17">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I17">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J17">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N17">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O17">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P17">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q17">
-        <v>408.3737719679436</v>
+        <v>78.9444608381865</v>
       </c>
       <c r="R17">
-        <v>1633.495087871775</v>
+        <v>315.777843352746</v>
       </c>
       <c r="S17">
-        <v>0.07226796381133448</v>
+        <v>0.01648674115493156</v>
       </c>
       <c r="T17">
-        <v>0.04750184987588358</v>
+        <v>0.0126344474201281</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H18">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I18">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J18">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N18">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O18">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P18">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q18">
-        <v>412.9574637414891</v>
+        <v>52.049762226996</v>
       </c>
       <c r="R18">
-        <v>2477.744782448934</v>
+        <v>312.298573361976</v>
       </c>
       <c r="S18">
-        <v>0.07307911794010377</v>
+        <v>0.0108700591263919</v>
       </c>
       <c r="T18">
-        <v>0.07205253420136519</v>
+        <v>0.01249523988963107</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.7442715</v>
+        <v>3.000897</v>
       </c>
       <c r="H19">
-        <v>25.488543</v>
+        <v>6.001794</v>
       </c>
       <c r="I19">
-        <v>0.4043549417253782</v>
+        <v>0.09493359460810134</v>
       </c>
       <c r="J19">
-        <v>0.3394275536698397</v>
+        <v>0.09195983163326681</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N19">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O19">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P19">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q19">
-        <v>278.3213339032145</v>
+        <v>52.215838869069</v>
       </c>
       <c r="R19">
-        <v>1669.928003419287</v>
+        <v>313.295033214414</v>
       </c>
       <c r="S19">
-        <v>0.049253202500034</v>
+        <v>0.01090474253015027</v>
       </c>
       <c r="T19">
-        <v>0.04856131488298895</v>
+        <v>0.01253510880341624</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H20">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I20">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J20">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N20">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O20">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P20">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q20">
-        <v>479.7405875128569</v>
+        <v>0.1945433008288333</v>
       </c>
       <c r="R20">
-        <v>2878.443525077142</v>
+        <v>1.167259804973</v>
       </c>
       <c r="S20">
-        <v>0.08489740966990647</v>
+        <v>4.062837354434755E-05</v>
       </c>
       <c r="T20">
-        <v>0.08370480769707499</v>
+        <v>4.67027150321188E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H21">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I21">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J21">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>24.489942</v>
       </c>
       <c r="N21">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O21">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P21">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q21">
-        <v>245.329242972042</v>
+        <v>0.105445526938</v>
       </c>
       <c r="R21">
-        <v>2207.963186748378</v>
+        <v>0.9490097424420001</v>
       </c>
       <c r="S21">
-        <v>0.04341474910968897</v>
+        <v>2.202121706975109E-05</v>
       </c>
       <c r="T21">
-        <v>0.06420731632872345</v>
+        <v>3.79704084516115E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H22">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I22">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J22">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N22">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O22">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P22">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q22">
-        <v>206.6174856713153</v>
+        <v>0.089365579899</v>
       </c>
       <c r="R22">
-        <v>1859.557371041838</v>
+        <v>0.8042902190909998</v>
       </c>
       <c r="S22">
-        <v>0.03656411357009393</v>
+        <v>1.86630850133375E-05</v>
       </c>
       <c r="T22">
-        <v>0.05407571515253678</v>
+        <v>3.218009970470646E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H23">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I23">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J23">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N23">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O23">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P23">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q23">
-        <v>320.9995241980874</v>
+        <v>0.1132689770921667</v>
       </c>
       <c r="R23">
-        <v>1925.997145188525</v>
+        <v>0.6796138625529999</v>
       </c>
       <c r="S23">
-        <v>0.05680575881847758</v>
+        <v>2.365506441332386E-05</v>
       </c>
       <c r="T23">
-        <v>0.05600777616743422</v>
+        <v>2.719172922726015E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H24">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I24">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J24">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N24">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O24">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P24">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q24">
-        <v>324.6025050440127</v>
+        <v>0.07468064589644445</v>
       </c>
       <c r="R24">
-        <v>2921.422545396114</v>
+        <v>0.672125813068</v>
       </c>
       <c r="S24">
-        <v>0.05744336119957931</v>
+        <v>1.559628712521669E-05</v>
       </c>
       <c r="T24">
-        <v>0.08495463268042668</v>
+        <v>2.689212819606346E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>10.017551</v>
+        <v>0.004305666666666667</v>
       </c>
       <c r="H25">
-        <v>30.052653</v>
+        <v>0.012917</v>
       </c>
       <c r="I25">
-        <v>0.3178405490526472</v>
+        <v>0.0001362100778037195</v>
       </c>
       <c r="J25">
-        <v>0.4002072024704813</v>
+        <v>0.0001979150142785486</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N25">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O25">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P25">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q25">
-        <v>218.7726585049196</v>
+        <v>0.07491893153633333</v>
       </c>
       <c r="R25">
-        <v>1968.953926544277</v>
+        <v>0.6742703838269999</v>
       </c>
       <c r="S25">
-        <v>0.03871515668490098</v>
+        <v>1.564605063774276E-05</v>
       </c>
       <c r="T25">
-        <v>0.05725695444428513</v>
+        <v>2.697793366678821E-05</v>
       </c>
     </row>
   </sheetData>
